--- a/excel_templates/AScan/T_报表生成_CameraImageSpecial.xlsx
+++ b/excel_templates/AScan/T_报表生成_CameraImageSpecial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UnionOffline\UnionOffline\excel_templates\AScan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B458BB-DA98-481B-A34B-6AC26A5019B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636943AC-5DD4-4581-A970-87126F474158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1270,7 +1270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1278,8 +1278,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1312,18 +1321,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1633,7 +1630,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1641,7 +1638,7 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
@@ -1652,176 +1649,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="60" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="15"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="17" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1830,22 +1827,22 @@
       <c r="F9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
@@ -1855,22 +1852,22 @@
       <c r="F10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="15"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="2" t="s">
         <v>59</v>
       </c>
@@ -1880,631 +1877,663 @@
       <c r="F11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="15"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16" t="s">
+      <c r="I12" s="3"/>
+      <c r="J12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="15"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="17" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="15"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16" t="s">
+      <c r="I14" s="3"/>
+      <c r="J14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="15"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="18" t="s">
+      <c r="I15" s="3"/>
+      <c r="J15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="15"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16" t="s">
+      <c r="I16" s="3"/>
+      <c r="J16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="K16" s="15"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16" t="s">
+      <c r="I17" s="3"/>
+      <c r="J17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="15"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="9"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="9"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="9"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="9"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="9"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="9"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="9"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="12"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="9"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="12"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="9"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="9"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="9"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="9"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="9"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="9"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="9"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="9"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="12"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A19:K35"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="J17:K18"/>
+    <mergeCell ref="A36:K53"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="B12:B14"/>
@@ -2521,45 +2550,13 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A36:K53"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A19:K35"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="J17:K18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_templates/AScan/T_报表生成_CameraImageSpecial.xlsx
+++ b/excel_templates/AScan/T_报表生成_CameraImageSpecial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UnionOffline\UnionOffline\excel_templates\AScan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636943AC-5DD4-4581-A970-87126F474158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2279F1-2478-4399-A88D-90A502D55DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6015" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>南通友联数字式超声波探伤仪探伤报告</t>
   </si>
@@ -1109,6 +1109,14 @@
       </rPr>
       <t>}</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$&lt;"name":"AScan", "width": 687, "height": 339&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$&lt;"name":"Camera", "width": 685, "height": 339&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1116,7 +1124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1151,6 +1159,11 @@
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1278,10 +1291,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1290,38 +1306,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1629,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1649,175 +1662,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="60" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="5" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="5" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="6" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="5" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="2" t="s">
         <v>54</v>
       </c>
@@ -1827,22 +1840,22 @@
       <c r="F9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="5" t="s">
+      <c r="I9" s="5"/>
+      <c r="J9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
@@ -1852,22 +1865,22 @@
       <c r="F10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="5" t="s">
+      <c r="I10" s="5"/>
+      <c r="J10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="2" t="s">
         <v>59</v>
       </c>
@@ -1877,624 +1890,674 @@
       <c r="F11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="5" t="s">
+      <c r="I11" s="5"/>
+      <c r="J11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="5" t="s">
+      <c r="I12" s="5"/>
+      <c r="J12" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="6" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="5" t="s">
+      <c r="I13" s="5"/>
+      <c r="J13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="5" t="s">
+      <c r="I14" s="5"/>
+      <c r="J14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4" t="s">
+      <c r="I15" s="5"/>
+      <c r="J15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="3"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="5" t="s">
+      <c r="I16" s="5"/>
+      <c r="J16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="5" t="s">
+      <c r="I17" s="5"/>
+      <c r="J17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="A19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="9"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="12"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="12"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="12"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="12"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="12"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="12"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="12"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="12"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="12"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="12"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="12"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="12"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="12"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="12"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="12"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="14"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1">
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="1:11" ht="15" customHeight="1">
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="14"/>
+    </row>
+    <row r="51" spans="1:11" ht="15" customHeight="1">
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="14"/>
+    </row>
+    <row r="52" spans="1:11" ht="15" customHeight="1">
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="14"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="15"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A19:K35"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="J17:K18"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="A36:K53"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:C2"/>
@@ -2511,52 +2574,6 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A19:K35"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="J17:K18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_templates/AScan/T_报表生成_CameraImageSpecial.xlsx
+++ b/excel_templates/AScan/T_报表生成_CameraImageSpecial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UnionOffline\UnionOffline\excel_templates\AScan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2279F1-2478-4399-A88D-90A502D55DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA95837-3379-4AA0-9F25-9EBF13E31344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>南通友联数字式超声波探伤仪探伤报告</t>
   </si>
@@ -1112,11 +1112,93 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$&lt;"name":"AScan", "width": 687, "height": 339&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>$&lt;"name":"Camera", "width": 685, "height": 339&gt;</t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摄像头图像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>$&lt;"name":"Camera", "width": 685, "height": 339&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扫图像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>$&lt;"name":"AScan", "width": 687, "height": 339&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B/C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扫图像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>$&lt;"name":"ScanView", "width": 685&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扫单行B扫图像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>$&lt;"name":"ScanViewExtra", "width": 685&gt;</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1124,7 +1206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1166,6 +1248,18 @@
       <sz val="16"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1283,13 +1377,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1308,33 +1432,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1640,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1662,175 +1759,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="60" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="2" t="s">
         <v>54</v>
       </c>
@@ -1840,22 +1937,22 @@
       <c r="F9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
@@ -1865,22 +1962,22 @@
       <c r="F10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6" t="s">
+      <c r="I10" s="15"/>
+      <c r="J10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="2" t="s">
         <v>59</v>
       </c>
@@ -1890,628 +1987,1048 @@
       <c r="F11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6" t="s">
+      <c r="I11" s="15"/>
+      <c r="J11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6" t="s">
+      <c r="I12" s="15"/>
+      <c r="J12" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="7" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6" t="s">
+      <c r="I13" s="15"/>
+      <c r="J13" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6" t="s">
+      <c r="I14" s="15"/>
+      <c r="J14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="5"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="8" t="s">
+      <c r="I15" s="15"/>
+      <c r="J15" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6" t="s">
+      <c r="I16" s="15"/>
+      <c r="J16" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6" t="s">
+      <c r="I17" s="15"/>
+      <c r="J17" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1">
+      <c r="A36" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="11"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="14"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="14"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="14"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="14"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="8"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="14"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="8"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="14"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="8"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="14"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="8"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="14"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="8"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="14"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="8"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="14"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="8"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="14"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="8"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="14"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="8"/>
     </row>
     <row r="49" spans="1:11" ht="15" customHeight="1">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="14"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="8"/>
     </row>
     <row r="50" spans="1:11" ht="15" customHeight="1">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="14"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="8"/>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="14"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="8"/>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="14"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="8"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="17"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="11"/>
+    </row>
+    <row r="54" spans="1:11" ht="15" customHeight="1">
+      <c r="A54" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" ht="15" customHeight="1">
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="8"/>
+    </row>
+    <row r="56" spans="1:11" ht="15" customHeight="1">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="8"/>
+    </row>
+    <row r="57" spans="1:11" ht="15" customHeight="1">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="8"/>
+    </row>
+    <row r="58" spans="1:11" ht="15" customHeight="1">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="8"/>
+    </row>
+    <row r="59" spans="1:11" ht="15" customHeight="1">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="8"/>
+    </row>
+    <row r="60" spans="1:11" ht="15" customHeight="1">
+      <c r="A60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="8"/>
+    </row>
+    <row r="61" spans="1:11" ht="15" customHeight="1">
+      <c r="A61" s="6"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="8"/>
+    </row>
+    <row r="62" spans="1:11" ht="15" customHeight="1">
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="8"/>
+    </row>
+    <row r="63" spans="1:11" ht="15" customHeight="1">
+      <c r="A63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="8"/>
+    </row>
+    <row r="64" spans="1:11" ht="15" customHeight="1">
+      <c r="A64" s="9"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="11"/>
+    </row>
+    <row r="65" spans="1:11" ht="15" customHeight="1">
+      <c r="A65" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="1:11" ht="15" customHeight="1">
+      <c r="A66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="8"/>
+    </row>
+    <row r="67" spans="1:11" ht="15" customHeight="1">
+      <c r="A67" s="6"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="8"/>
+    </row>
+    <row r="68" spans="1:11" ht="15" customHeight="1">
+      <c r="A68" s="6"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="8"/>
+    </row>
+    <row r="69" spans="1:11" ht="15" customHeight="1">
+      <c r="A69" s="6"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="8"/>
+    </row>
+    <row r="70" spans="1:11" ht="15" customHeight="1">
+      <c r="A70" s="6"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="8"/>
+    </row>
+    <row r="71" spans="1:11" ht="15" customHeight="1">
+      <c r="A71" s="6"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="8"/>
+    </row>
+    <row r="72" spans="1:11" ht="15" customHeight="1">
+      <c r="A72" s="6"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="8"/>
+    </row>
+    <row r="73" spans="1:11" ht="15" customHeight="1">
+      <c r="A73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="8"/>
+    </row>
+    <row r="74" spans="1:11" ht="15" customHeight="1">
+      <c r="A74" s="6"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="8"/>
+    </row>
+    <row r="75" spans="1:11" ht="15" customHeight="1">
+      <c r="A75" s="6"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="8"/>
+    </row>
+    <row r="76" spans="1:11" ht="15" customHeight="1">
+      <c r="A76" s="6"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="8"/>
+    </row>
+    <row r="77" spans="1:11" ht="15" customHeight="1">
+      <c r="A77" s="6"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="8"/>
+    </row>
+    <row r="78" spans="1:11" ht="15" customHeight="1">
+      <c r="A78" s="6"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="8"/>
+    </row>
+    <row r="79" spans="1:11" ht="15" customHeight="1">
+      <c r="A79" s="6"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="8"/>
+    </row>
+    <row r="80" spans="1:11" ht="15" customHeight="1">
+      <c r="A80" s="6"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="8"/>
+    </row>
+    <row r="81" spans="1:11" ht="15" customHeight="1">
+      <c r="A81" s="6"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="8"/>
+    </row>
+    <row r="82" spans="1:11" ht="15" customHeight="1">
+      <c r="A82" s="6"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="8"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="6"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="8"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="6"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="8"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="9"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="64">
     <mergeCell ref="A19:K35"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
@@ -2542,9 +3059,11 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -2553,11 +3072,13 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A65:K85"/>
+    <mergeCell ref="A54:K64"/>
     <mergeCell ref="A36:K53"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:C2"/>
@@ -2572,8 +3093,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
